--- a/pred_ohlcv/54_23/2019-10-11 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-11 LINK ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -461,7 +461,7 @@
         <v>3280</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -484,7 +484,7 @@
         <v>3282</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -507,7 +507,7 @@
         <v>3280</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>3280</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -553,7 +553,7 @@
         <v>3280</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -576,7 +576,7 @@
         <v>3280</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -599,7 +599,7 @@
         <v>3261</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -622,7 +622,7 @@
         <v>3221</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3980,7 +3980,7 @@
         <v>3073</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>3077</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>3084</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>3079</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -4141,7 +4141,7 @@
         <v>3091</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437">
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="G437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="G440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="G441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="G442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443">
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="G443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="G444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="G445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="G446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="G447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="G449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="G450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="G451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="G453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="G454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="G455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -10883,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="G457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="G459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="G460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="G461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="G462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="G463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="G465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="G467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="G468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="G471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -11228,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="G473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474">
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="G474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="G477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="G478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="G479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480">
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="G480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="G482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -11481,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="G484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="G485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487">
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="G489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="G492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="G495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="G498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="G499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -11895,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -11918,10 +11918,10 @@
         <v>0</v>
       </c>
       <c r="G502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>